--- a/data/trans_bre/IP17-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP17-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 8,14</t>
+          <t>-11,95; 7,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 10,48</t>
+          <t>-8,9; 11,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 27,25</t>
+          <t>2,36; 26,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 9,45</t>
+          <t>-14,01; 8,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,46; 42,81</t>
+          <t>-41,53; 37,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,03; 70,59</t>
+          <t>-35,79; 83,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 212,72</t>
+          <t>8,01; 209,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,27; 94,0</t>
+          <t>-67,02; 90,53</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 0,98</t>
+          <t>-7,08; 1,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 1,44</t>
+          <t>-7,2; 1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 3,85</t>
+          <t>-4,43; 3,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 0,87</t>
+          <t>-7,52; 1,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 4,64</t>
+          <t>-29,18; 8,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,55; 6,58</t>
+          <t>-26,87; 7,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 21,55</t>
+          <t>-20,51; 20,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 5,36</t>
+          <t>-37,29; 6,78</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 4,65</t>
+          <t>-10,65; 4,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 15,98</t>
+          <t>0,71; 15,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 5,57</t>
+          <t>-8,1; 5,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 8,87</t>
+          <t>-5,33; 8,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 25,02</t>
+          <t>-40,21; 23,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 111,56</t>
+          <t>2,81; 109,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 32,82</t>
+          <t>-36,2; 34,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 66,97</t>
+          <t>-26,54; 65,11</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 0,51</t>
+          <t>-6,45; 0,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,76</t>
+          <t>-2,98; 4,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 4,06</t>
+          <t>-2,58; 4,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 1,3</t>
+          <t>-5,34; 1,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 2,42</t>
+          <t>-26,07; 3,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 17,68</t>
+          <t>-12,47; 19,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 22,47</t>
+          <t>-12,18; 24,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 8,07</t>
+          <t>-28,46; 9,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP17-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP17-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,32%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,32; 9,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; 10,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,51; 27,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,03; 7,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,97; 54,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,48; 69,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,66; 219,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,09; 78,99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,73</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>-14,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>-10,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>83,42%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,82%</t>
+          <t>-18,42%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 7,22</t>
+          <t>-7,48; 1,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 11,07</t>
+          <t>-7,08; 1,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 26,43</t>
+          <t>-4,4; 3,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 8,46</t>
+          <t>-8,08; 0,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,53; 37,58</t>
+          <t>-30,73; 7,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 83,31</t>
+          <t>-26,07; 8,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 209,65</t>
+          <t>-20,46; 21,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,02; 90,53</t>
+          <t>-40,53; 5,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-14,14%</t>
+          <t>-11,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,73%</t>
+          <t>45,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>-7,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,75%</t>
+          <t>9,2%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 1,61</t>
+          <t>-9,57; 4,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 1,72</t>
+          <t>0,66; 15,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 3,62</t>
+          <t>-8,71; 5,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 1,02</t>
+          <t>-5,93; 8,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 8,37</t>
+          <t>-37,56; 23,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 7,65</t>
+          <t>1,68; 109,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 20,16</t>
+          <t>-37,59; 32,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 6,78</t>
+          <t>-28,05; 64,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>-12,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,77%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>-12,51%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 4,27</t>
+          <t>-6,2; 0,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 15,87</t>
+          <t>-3,36; 4,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 5,82</t>
+          <t>-2,61; 4,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 8,5</t>
+          <t>-6,31; 1,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,21; 23,86</t>
+          <t>-25,64; 2,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 109,03</t>
+          <t>-13,9; 18,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 34,07</t>
+          <t>-12,18; 25,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 65,11</t>
+          <t>-33,25; 6,59</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,78</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,12</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-12,4%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-12,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 0,63</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 4,03</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 4,43</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; 1,52</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-26,07; 3,36</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-12,47; 19,26</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-12,18; 24,85</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-28,46; 9,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
